--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/RHODE_ISLAND_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/RHODE_ISLAND_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C3">
@@ -517,7 +517,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -626,12 +626,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C20">
@@ -688,7 +688,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C24">
@@ -758,7 +758,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C31">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C33">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C37">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C43">
@@ -1023,7 +1023,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C49">
@@ -1062,7 +1062,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C52">
@@ -1158,7 +1158,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C59">
@@ -1171,7 +1171,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C60">
@@ -1197,7 +1197,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C62">
@@ -1464,7 +1464,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C81">
@@ -1625,7 +1625,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C93">
@@ -1664,7 +1664,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C96">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C105">
@@ -1799,7 +1799,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C106">
@@ -1812,7 +1812,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C107">
@@ -1869,7 +1869,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C111">
@@ -2162,7 +2162,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C132">
@@ -2310,76 +2310,6 @@
       </c>
       <c r="D142">
         <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/RHODE_ISLAND_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/RHODE_ISLAND_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -489,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -502,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -559,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -572,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -585,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -598,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -611,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Papalotla</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -995,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tlahuelilpan</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tlaxcoapan</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1156,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Ixtlahuacán Del Río</t>
@@ -1169,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1182,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -1195,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1208,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1239,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1265,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1278,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -1387,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Juan Cotzocón</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -1514,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -1527,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1558,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1571,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1584,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -1597,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1610,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1623,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1636,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1649,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1662,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Nicolás De Los Ranchos</t>
@@ -1675,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1753,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Xicotlán</t>
@@ -1766,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1797,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1810,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -1823,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1854,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1867,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -1880,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -1924,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1986,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -1999,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2030,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -2043,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Chiconamel</t>
@@ -2056,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2069,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -2082,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -2095,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2108,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -2121,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2134,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2147,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -2160,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2173,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -2186,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2199,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2212,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2225,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2256,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2287,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
